--- a/Case study/Dàn trang.xlsx
+++ b/Case study/Dàn trang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hung\Desktop\Học\Codegym\Codegym\Case study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81616F87-D8DC-4785-8369-6CA6A9EEF4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F2E992-491F-4EC9-9890-4AB49327AB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6BF77839-0886-44E3-B9DF-CC6278127F11}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Mã tài sản</t>
   </si>
@@ -49,21 +49,6 @@
     <t>Tên tài sản</t>
   </si>
   <si>
-    <t>Nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Ngày đưa vào sử dụng</t>
-  </si>
-  <si>
-    <t>Ngày</t>
-  </si>
-  <si>
-    <t>Tháng</t>
-  </si>
-  <si>
-    <t>Năm</t>
-  </si>
-  <si>
     <t>Số tháng khấu hao</t>
   </si>
   <si>
@@ -77,6 +62,9 @@
   </si>
   <si>
     <t>Tìm kiếm</t>
+  </si>
+  <si>
+    <t>Ngày đưa vào sử dụng (dd/mm/yyyy)</t>
   </si>
 </sst>
 </file>
@@ -112,8 +100,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,75 +419,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8393BB69-B953-41EB-A3D1-D75CECBB7BC1}">
-  <dimension ref="H3:Q9"/>
+  <dimension ref="G2:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="H2" sqref="H2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0</v>
+      </c>
       <c r="H3" t="s">
         <v>0</v>
       </c>
-      <c r="P3" t="s">
-        <v>10</v>
+      <c r="K3" t="s">
+        <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1</v>
+      </c>
       <c r="H4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="8:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>2</v>
+      </c>
       <c r="H5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="Q5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
